--- a/(UEL case 11) cube_C3D8T_transient_nlgeom_on_4NP/processing_input/depvar.xlsx
+++ b/(UEL case 11) cube_C3D8T_transient_nlgeom_on_4NP/processing_input/depvar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\nguyenb5\Abaqus-UEL-Multiphysics\(UEL case 11) cube_C3D8T_transient_nlgeom_on_4NP\processing_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9566E14-168F-4E26-A7C7-61E475152373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A36655B-47C9-4384-BA46-61ED14B8FFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,15 +157,6 @@
     <t>temp</t>
   </si>
   <si>
-    <t>temp_grad_X</t>
-  </si>
-  <si>
-    <t>temp_grad_Y</t>
-  </si>
-  <si>
-    <t>temp_grad_Z</t>
-  </si>
-  <si>
     <t>eqplas_grad_X</t>
   </si>
   <si>
@@ -191,6 +182,15 @@
   </si>
   <si>
     <t>u_heat</t>
+  </si>
+  <si>
+    <t>flux_heat_X</t>
+  </si>
+  <si>
+    <t>flux_heat_Y</t>
+  </si>
+  <si>
+    <t>flux_heat_Z</t>
   </si>
 </sst>
 </file>
@@ -584,8 +584,8 @@
   </sheetPr>
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,7 +886,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>39</v>
@@ -897,7 +897,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>39</v>
@@ -908,7 +908,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>39</v>
@@ -1007,7 +1007,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>43</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>43</v>
@@ -1040,7 +1040,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>43</v>
@@ -1051,7 +1051,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>43</v>
@@ -1065,7 +1065,7 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1076,7 +1076,7 @@
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1087,7 +1087,7 @@
         <v>35</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1095,10 +1095,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1106,10 +1106,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1117,10 +1117,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1131,7 +1131,7 @@
         <v>32</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1142,7 +1142,7 @@
         <v>33</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
         <v>34</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
